--- a/docs/data/raw-data/bangaloreCMP2020Projects.xlsx
+++ b/docs/data/raw-data/bangaloreCMP2020Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\00_Git Repos\bangalore-cmp-2020\data\raw-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0145404\Desktop\Work\00_Git Repos\bangalore-cmp-2020\data\raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82FA0F1-0188-4AEA-A076-657EADE8D3D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63791AF7-13E3-4485-A3A9-37B43DA3E920}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="609">
   <si>
     <t>id</t>
   </si>
@@ -1825,6 +1825,33 @@
   </si>
   <si>
     <t>12.948798064358334, 77.59347786579664</t>
+  </si>
+  <si>
+    <t>12.924248414712705, 77.62878308466303</t>
+  </si>
+  <si>
+    <t>12.95978510706042, 77.6490777658074</t>
+  </si>
+  <si>
+    <t>12.955883281489967, 77.71478170292669</t>
+  </si>
+  <si>
+    <t>12.966016027568024, 77.62519384745649</t>
+  </si>
+  <si>
+    <t>12.95580649437448, 77.72090681150455</t>
+  </si>
+  <si>
+    <t>12.988291551530514, 77.59882756769447</t>
+  </si>
+  <si>
+    <t>12.972740838174236, 77.62006426359441</t>
+  </si>
+  <si>
+    <t>12.917050393550145, 77.6219817824361</t>
+  </si>
+  <si>
+    <t>12.93204477024139, 77.54155369315477</t>
   </si>
 </sst>
 </file>
@@ -2148,9 +2175,9 @@
   <dimension ref="A1:H391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2933,6 +2960,9 @@
       <c r="G46">
         <v>10</v>
       </c>
+      <c r="H46" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -3117,6 +3147,9 @@
       <c r="G57">
         <v>2</v>
       </c>
+      <c r="H57" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -3134,6 +3167,9 @@
       <c r="G58">
         <v>2</v>
       </c>
+      <c r="H58" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -3151,6 +3187,9 @@
       <c r="G59">
         <v>2</v>
       </c>
+      <c r="H59" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -3168,6 +3207,9 @@
       <c r="G60">
         <v>2</v>
       </c>
+      <c r="H60" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -3242,6 +3284,9 @@
       <c r="G64">
         <v>2</v>
       </c>
+      <c r="H64" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -3359,6 +3404,9 @@
       <c r="G70">
         <v>2</v>
       </c>
+      <c r="H70" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -3536,7 +3584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2029</v>
       </c>
@@ -3553,7 +3601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2030</v>
       </c>
@@ -3570,7 +3618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2031</v>
       </c>
@@ -3587,7 +3635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2032</v>
       </c>
@@ -3604,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2033</v>
       </c>
@@ -3621,7 +3669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2034</v>
       </c>
@@ -3638,7 +3686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2035</v>
       </c>
@@ -3655,7 +3703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2036</v>
       </c>
@@ -3671,8 +3719,11 @@
       <c r="G88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2037</v>
       </c>
@@ -3689,7 +3740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2038</v>
       </c>
@@ -3706,7 +3757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2039</v>
       </c>
@@ -3723,7 +3774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2040</v>
       </c>
@@ -3740,7 +3791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2041</v>
       </c>
@@ -3757,7 +3808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2042</v>
       </c>
@@ -3774,7 +3825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2043</v>
       </c>
@@ -3791,7 +3842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2044</v>
       </c>
@@ -3942,6 +3993,9 @@
       </c>
       <c r="G104">
         <v>2</v>
+      </c>
+      <c r="H104" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">

--- a/docs/data/raw-data/bangaloreCMP2020Projects.xlsx
+++ b/docs/data/raw-data/bangaloreCMP2020Projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0145404\Desktop\Work\00_Git Repos\bangalore-cmp-2020\data\raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63791AF7-13E3-4485-A3A9-37B43DA3E920}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B0BE72-8E41-4496-8487-DF1C6D25573F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="630">
   <si>
     <t>id</t>
   </si>
@@ -1852,6 +1852,69 @@
   </si>
   <si>
     <t>12.93204477024139, 77.54155369315477</t>
+  </si>
+  <si>
+    <t>13.01100171685758, 77.50678262637112</t>
+  </si>
+  <si>
+    <t>13.02128199624543, 77.62921375899273</t>
+  </si>
+  <si>
+    <t>12.978523951884796, 77.62787533772499</t>
+  </si>
+  <si>
+    <t>12.98527088466307, 77.605763911896</t>
+  </si>
+  <si>
+    <t>12.99827053171275, 77.62222341000982</t>
+  </si>
+  <si>
+    <t>13.030833179215227, 77.56003606584113</t>
+  </si>
+  <si>
+    <t>12.978187052376956, 77.60559109373847</t>
+  </si>
+  <si>
+    <t>12.962480001917866, 77.56917225950914</t>
+  </si>
+  <si>
+    <t>12.9652758021879, 77.6177742731626</t>
+  </si>
+  <si>
+    <t>13.050480027477718, 77.55305855443768</t>
+  </si>
+  <si>
+    <t>12.94832212504066, 77.57998207914532</t>
+  </si>
+  <si>
+    <t>12.927288672775402, 77.57826559671072</t>
+  </si>
+  <si>
+    <t>12.962429805751386, 77.59221850235612</t>
+  </si>
+  <si>
+    <t>12.974174735918611, 77.57844366276873</t>
+  </si>
+  <si>
+    <t>12.934585884391407, 77.69024573250313</t>
+  </si>
+  <si>
+    <t>12.99681012500734, 77.56942496976058</t>
+  </si>
+  <si>
+    <t>12.991784933792777, 77.61426553491549</t>
+  </si>
+  <si>
+    <t>12.916840838732277, 77.59235614928114</t>
+  </si>
+  <si>
+    <t>12.991703717692353, 77.57153935851078</t>
+  </si>
+  <si>
+    <t>13.003913380838975, 77.54917809016484</t>
+  </si>
+  <si>
+    <t>12.980304356609018, 77.57201341367356</t>
   </si>
 </sst>
 </file>
@@ -2175,9 +2238,9 @@
   <dimension ref="A1:H391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
+      <selection pane="bottomLeft" activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4959,7 +5022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2109</v>
       </c>
@@ -4976,7 +5039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2110</v>
       </c>
@@ -4993,7 +5056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2111</v>
       </c>
@@ -5010,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2112</v>
       </c>
@@ -5027,7 +5090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2113</v>
       </c>
@@ -5044,7 +5107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2114</v>
       </c>
@@ -5061,7 +5124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2115</v>
       </c>
@@ -5078,7 +5141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2116</v>
       </c>
@@ -5095,7 +5158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2117</v>
       </c>
@@ -5112,7 +5175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2118</v>
       </c>
@@ -5129,7 +5192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2119</v>
       </c>
@@ -5145,8 +5208,11 @@
       <c r="G171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2120</v>
       </c>
@@ -5162,8 +5228,11 @@
       <c r="G172">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2121</v>
       </c>
@@ -5180,7 +5249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2122</v>
       </c>
@@ -5197,7 +5266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2123</v>
       </c>
@@ -5213,8 +5282,11 @@
       <c r="G175">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2124</v>
       </c>
@@ -5231,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2125</v>
       </c>
@@ -5247,8 +5319,11 @@
       <c r="G177">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2126</v>
       </c>
@@ -5265,7 +5340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2127</v>
       </c>
@@ -5282,7 +5357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2128</v>
       </c>
@@ -5298,8 +5373,11 @@
       <c r="G180">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2129</v>
       </c>
@@ -5316,7 +5394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2130</v>
       </c>
@@ -5333,7 +5411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2131</v>
       </c>
@@ -5349,8 +5427,11 @@
       <c r="G183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2132</v>
       </c>
@@ -5367,7 +5448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2133</v>
       </c>
@@ -5383,8 +5464,11 @@
       <c r="G185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2134</v>
       </c>
@@ -5400,8 +5484,11 @@
       <c r="G186">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2135</v>
       </c>
@@ -5417,8 +5504,11 @@
       <c r="G187">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2136</v>
       </c>
@@ -5435,7 +5525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2137</v>
       </c>
@@ -5451,8 +5541,11 @@
       <c r="G189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2138</v>
       </c>
@@ -5468,8 +5561,11 @@
       <c r="G190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2139</v>
       </c>
@@ -5486,7 +5582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2140</v>
       </c>
@@ -5501,6 +5597,9 @@
       </c>
       <c r="G192">
         <v>2</v>
+      </c>
+      <c r="H192" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -5536,6 +5635,9 @@
       <c r="G194">
         <v>2</v>
       </c>
+      <c r="H194" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
@@ -5553,6 +5655,9 @@
       <c r="G195">
         <v>2</v>
       </c>
+      <c r="H195" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
@@ -5570,6 +5675,9 @@
       <c r="G196">
         <v>2</v>
       </c>
+      <c r="H196" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
@@ -5587,6 +5695,9 @@
       <c r="G197">
         <v>2</v>
       </c>
+      <c r="H197" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
@@ -5604,6 +5715,9 @@
       <c r="G198">
         <v>2</v>
       </c>
+      <c r="H198" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
@@ -5780,6 +5894,9 @@
       <c r="G211">
         <v>50</v>
       </c>
+      <c r="H211" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
@@ -5823,6 +5940,9 @@
       <c r="G213">
         <v>50</v>
       </c>
+      <c r="H213" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
@@ -6774,6 +6894,9 @@
       <c r="G255">
         <v>50</v>
       </c>
+      <c r="H255" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
@@ -6793,6 +6916,9 @@
       </c>
       <c r="G256">
         <v>50</v>
+      </c>
+      <c r="H256" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
